--- a/testmetadata.xlsx
+++ b/testmetadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\validatingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a,b,c,d 중 포함되어야함</t>
+    <t>a,b,c,d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/testmetadata.xlsx
+++ b/testmetadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Label</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>a,b,c,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
